--- a/src/main/ccpp/main/input.xlsx
+++ b/src/main/ccpp/main/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onlyu/dev/work/haki/src/main/ccpp/main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\work\haki\src\main\ccpp\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EB72F-7464-2A4E-9083-C6115D983AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C93209-D714-4E47-B317-6E947373953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="3660" windowWidth="27180" windowHeight="16620" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
+    <workbookView xWindow="32190" yWindow="-6705" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -54,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +128,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +495,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93025F76-99D2-264E-8D16-A0A86561E039}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/ccpp/main/input.xlsx
+++ b/src/main/ccpp/main/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\work\haki\src\main\ccpp\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C93209-D714-4E47-B317-6E947373953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D10CC7F-2146-4E23-8AAC-3B095D99695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32190" yWindow="-6705" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
+    <workbookView xWindow="4440" yWindow="-14790" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/ccpp/main/input.xlsx
+++ b/src/main/ccpp/main/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\work\haki\src\main\ccpp\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D10CC7F-2146-4E23-8AAC-3B095D99695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1749CC-B756-426C-8EA1-12AD27F8FBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-14790" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
+    <workbookView xWindow="4215" yWindow="840" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +107,14 @@
       <b/>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +167,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93025F76-99D2-264E-8D16-A0A86561E039}">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -506,337 +517,413 @@
     <col min="1" max="16384" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2">
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="U2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="V2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="W2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>13</v>
+    </row>
+    <row r="12" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/ccpp/main/input.xlsx
+++ b/src/main/ccpp/main/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\work\haki\src\main\ccpp\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1749CC-B756-426C-8EA1-12AD27F8FBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EF9229-28EA-4979-8C59-1BFF46F06CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="840" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/ccpp/main/input.xlsx
+++ b/src/main/ccpp/main/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\work\haki\src\main\ccpp\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EF9229-28EA-4979-8C59-1BFF46F06CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEC7F4-7DF3-4C55-B1EE-E891E8001227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="840" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/ccpp/main/input.xlsx
+++ b/src/main/ccpp/main/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\work\haki\src\main\ccpp\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEC7F4-7DF3-4C55-B1EE-E891E8001227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D46F4-1BA7-49F5-8DB0-01957F60EE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="840" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
+    <workbookView xWindow="2865" yWindow="-15420" windowWidth="21375" windowHeight="13395" xr2:uid="{3189D665-237B-804B-B562-8510F09A10A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93025F76-99D2-264E-8D16-A0A86561E039}">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -926,6 +926,214 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <v>11</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
